--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Penk-Oprm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Penk-Oprm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -540,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2684063333333333</v>
+        <v>0.07806100000000001</v>
       </c>
       <c r="H2">
-        <v>0.8052189999999999</v>
+        <v>0.234183</v>
       </c>
       <c r="I2">
-        <v>0.006023033753180069</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="J2">
-        <v>0.006073129829757111</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,60 +555,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6597006666666666</v>
+        <v>0.8377936666666667</v>
       </c>
       <c r="N2">
-        <v>1.979102</v>
+        <v>2.513381</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7130909380817101</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7130909380817101</v>
       </c>
       <c r="Q2">
-        <v>0.1770678370375555</v>
+        <v>0.06539901141366668</v>
       </c>
       <c r="R2">
-        <v>1.593610533338</v>
+        <v>0.588591102723</v>
       </c>
       <c r="S2">
-        <v>0.006023033753180069</v>
+        <v>0.001283835655597657</v>
       </c>
       <c r="T2">
-        <v>0.006073129829757111</v>
+        <v>0.001283835655597657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>43.033198</v>
+        <v>0.07806100000000001</v>
       </c>
       <c r="H3">
-        <v>129.099594</v>
+        <v>0.234183</v>
       </c>
       <c r="I3">
-        <v>0.9656642629940962</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="J3">
-        <v>0.9736960942686801</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,60 +617,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.6597006666666666</v>
+        <v>0.3370826666666667</v>
       </c>
       <c r="N3">
-        <v>1.979102</v>
+        <v>1.011248</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2869090619182899</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2869090619182899</v>
       </c>
       <c r="Q3">
-        <v>28.38902940939866</v>
+        <v>0.02631301004266667</v>
       </c>
       <c r="R3">
-        <v>255.501264684588</v>
+        <v>0.236817090384</v>
       </c>
       <c r="S3">
-        <v>0.9656642629940962</v>
+        <v>0.0005165457362221723</v>
       </c>
       <c r="T3">
-        <v>0.9736960942686801</v>
+        <v>0.0005165457362221722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.07400866666666668</v>
+        <v>43.033198</v>
       </c>
       <c r="H4">
-        <v>0.222026</v>
+        <v>129.099594</v>
       </c>
       <c r="I4">
-        <v>0.001660753275920661</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="J4">
-        <v>0.001674566451588515</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,60 +679,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6597006666666666</v>
+        <v>0.8377936666666667</v>
       </c>
       <c r="N4">
-        <v>1.979102</v>
+        <v>2.513381</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7130909380817101</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7130909380817101</v>
       </c>
       <c r="Q4">
-        <v>0.04882356673911112</v>
+        <v>36.05294074081267</v>
       </c>
       <c r="R4">
-        <v>0.439412100652</v>
+        <v>324.476466667314</v>
       </c>
       <c r="S4">
-        <v>0.001660753275920661</v>
+        <v>0.7077484783284069</v>
       </c>
       <c r="T4">
-        <v>0.001674566451588515</v>
+        <v>0.7077484783284069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.1027825</v>
+        <v>43.033198</v>
       </c>
       <c r="H5">
-        <v>2.205565</v>
+        <v>129.099594</v>
       </c>
       <c r="I5">
-        <v>0.02474642135834959</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="J5">
-        <v>0.01663483175753211</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,39 +741,39 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6597006666666666</v>
+        <v>0.3370826666666667</v>
       </c>
       <c r="N5">
-        <v>1.979102</v>
+        <v>1.011248</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.2869090619182899</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.2869090619182899</v>
       </c>
       <c r="Q5">
-        <v>0.7275063504383332</v>
+        <v>14.50574513703467</v>
       </c>
       <c r="R5">
-        <v>4.36503810263</v>
+        <v>130.551706233312</v>
       </c>
       <c r="S5">
-        <v>0.02474642135834959</v>
+        <v>0.2847595462894981</v>
       </c>
       <c r="T5">
-        <v>0.01663483175753211</v>
+        <v>0.2847595462894981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -788,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08491666666666665</v>
+        <v>0.05540800000000001</v>
       </c>
       <c r="H6">
-        <v>0.25475</v>
+        <v>0.166224</v>
       </c>
       <c r="I6">
-        <v>0.001905528618453641</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="J6">
-        <v>0.00192137769244221</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +803,214 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6597006666666666</v>
+        <v>0.8377936666666667</v>
       </c>
       <c r="N6">
-        <v>1.979102</v>
+        <v>2.513381</v>
       </c>
       <c r="O6">
+        <v>0.7130909380817101</v>
+      </c>
+      <c r="P6">
+        <v>0.7130909380817101</v>
+      </c>
+      <c r="Q6">
+        <v>0.04642047148266667</v>
+      </c>
+      <c r="R6">
+        <v>0.417784243344</v>
+      </c>
+      <c r="S6">
+        <v>0.000911271518496496</v>
+      </c>
+      <c r="T6">
+        <v>0.000911271518496496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="P6">
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.05540800000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.166224</v>
+      </c>
+      <c r="I7">
+        <v>0.001277917681786719</v>
+      </c>
+      <c r="J7">
+        <v>0.001277917681786719</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.3370826666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.011248</v>
+      </c>
+      <c r="O7">
+        <v>0.2869090619182899</v>
+      </c>
+      <c r="P7">
+        <v>0.2869090619182899</v>
+      </c>
+      <c r="Q7">
+        <v>0.01867707639466667</v>
+      </c>
+      <c r="R7">
+        <v>0.168093687552</v>
+      </c>
+      <c r="S7">
+        <v>0.0003666461632902233</v>
+      </c>
+      <c r="T7">
+        <v>0.0003666461632902233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>0.0560195816111111</v>
-      </c>
-      <c r="R6">
-        <v>0.5041762344999999</v>
-      </c>
-      <c r="S6">
-        <v>0.001905528618453641</v>
-      </c>
-      <c r="T6">
-        <v>0.00192137769244221</v>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1913683333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.574105</v>
+      </c>
+      <c r="I8">
+        <v>0.004413676308488332</v>
+      </c>
+      <c r="J8">
+        <v>0.004413676308488332</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.8377936666666667</v>
+      </c>
+      <c r="N8">
+        <v>2.513381</v>
+      </c>
+      <c r="O8">
+        <v>0.7130909380817101</v>
+      </c>
+      <c r="P8">
+        <v>0.7130909380817101</v>
+      </c>
+      <c r="Q8">
+        <v>0.1603271776672222</v>
+      </c>
+      <c r="R8">
+        <v>1.442944599005</v>
+      </c>
+      <c r="S8">
+        <v>0.003147352579208964</v>
+      </c>
+      <c r="T8">
+        <v>0.003147352579208964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1913683333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.574105</v>
+      </c>
+      <c r="I9">
+        <v>0.004413676308488332</v>
+      </c>
+      <c r="J9">
+        <v>0.004413676308488332</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3370826666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.011248</v>
+      </c>
+      <c r="O9">
+        <v>0.2869090619182899</v>
+      </c>
+      <c r="P9">
+        <v>0.2869090619182899</v>
+      </c>
+      <c r="Q9">
+        <v>0.06450694811555556</v>
+      </c>
+      <c r="R9">
+        <v>0.5805625330400001</v>
+      </c>
+      <c r="S9">
+        <v>0.001266323729279368</v>
+      </c>
+      <c r="T9">
+        <v>0.001266323729279368</v>
       </c>
     </row>
   </sheetData>
